--- a/digikey/digikey-list_Latch-Circuit.xlsx
+++ b/digikey/digikey-list_Latch-Circuit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mi-ko\Desktop\University\EV\Kicad\Latch-Circuit\digikey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96DA604-0421-4428-AB50-8F75888C72BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47AAC685-2D7B-4911-B5CA-2FDAE486E603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8880" xr2:uid="{797B4FD7-43DF-463C-9544-569240222543}"/>
+    <workbookView xWindow="5400" yWindow="3012" windowWidth="17280" windowHeight="8880" xr2:uid="{797B4FD7-43DF-463C-9544-569240222543}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>digikey品番</t>
     <rPh sb="7" eb="9">
@@ -118,6 +118,81 @@
   </si>
   <si>
     <t>P1.0MALCT-ND</t>
+  </si>
+  <si>
+    <t>説明</t>
+    <rPh sb="0" eb="2">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mlcc, 22u, 3216</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mlcc, 0.01u, 1608</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mlcc, 1000p, 3216</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LED, G</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PMOS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NMOS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R, 100k, 1608</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R, 100, 1608</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R, 0, 1608</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R, 10k, 1608</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R, 1M, 3216</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D, 1N4448WQ-7-F</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Relay</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Zener, PZ1AH11B-AU</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PA, 2pin, Vertical</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PA, 3pin, Vertical</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VH, 2pin, Vertical</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -501,18 +576,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2C7BD85-CA04-400C-ADC6-EF7AF42257E2}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="31.796875" customWidth="1"/>
+    <col min="1" max="1" width="35.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -522,149 +597,206 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="C3">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="C6">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="C7">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="C8">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="C11">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>14</v>
       </c>
       <c r="C13">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>15</v>
       </c>
       <c r="C14">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>16</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>17</v>
       </c>
       <c r="C16">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>18</v>
       </c>
       <c r="C17">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>19</v>
       </c>
       <c r="C18">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>20</v>
       </c>
       <c r="C19">
         <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/digikey/digikey-list_Latch-Circuit.xlsx
+++ b/digikey/digikey-list_Latch-Circuit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mi-ko\Desktop\University\EV\Kicad\Latch-Circuit\digikey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47AAC685-2D7B-4911-B5CA-2FDAE486E603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A765CE23-9BDC-4E97-9D85-2D4C32727232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5400" yWindow="3012" windowWidth="17280" windowHeight="8880" xr2:uid="{797B4FD7-43DF-463C-9544-569240222543}"/>
   </bookViews>
@@ -579,7 +579,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B2" sqref="B2:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -605,6 +605,9 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
       <c r="C2">
         <v>2</v>
       </c>
@@ -616,6 +619,9 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
+      <c r="B3">
+        <v>9</v>
+      </c>
       <c r="C3">
         <v>9</v>
       </c>
@@ -627,6 +633,9 @@
       <c r="A4" t="s">
         <v>5</v>
       </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
       <c r="C4">
         <v>1</v>
       </c>
@@ -638,6 +647,9 @@
       <c r="A5" t="s">
         <v>6</v>
       </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
       <c r="C5">
         <v>1</v>
       </c>
@@ -649,6 +661,9 @@
       <c r="A6" t="s">
         <v>7</v>
       </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
       <c r="C6">
         <v>3</v>
       </c>
@@ -660,6 +675,9 @@
       <c r="A7" t="s">
         <v>8</v>
       </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
       <c r="C7">
         <v>3</v>
       </c>
@@ -671,6 +689,9 @@
       <c r="A8" t="s">
         <v>9</v>
       </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
       <c r="C8">
         <v>8</v>
       </c>
@@ -682,6 +703,9 @@
       <c r="A9" t="s">
         <v>10</v>
       </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
       <c r="C9">
         <v>1</v>
       </c>
@@ -693,6 +717,9 @@
       <c r="A10" t="s">
         <v>11</v>
       </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
       <c r="C10">
         <v>1</v>
       </c>
@@ -704,6 +731,9 @@
       <c r="A11" t="s">
         <v>12</v>
       </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
       <c r="C11">
         <v>3</v>
       </c>
@@ -715,6 +745,9 @@
       <c r="A12" t="s">
         <v>13</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
         <v>1</v>
       </c>
@@ -726,6 +759,9 @@
       <c r="A13" t="s">
         <v>14</v>
       </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
       <c r="C13">
         <v>6</v>
       </c>
@@ -737,6 +773,9 @@
       <c r="A14" t="s">
         <v>15</v>
       </c>
+      <c r="B14">
+        <v>6</v>
+      </c>
       <c r="C14">
         <v>6</v>
       </c>
@@ -748,6 +787,9 @@
       <c r="A15" t="s">
         <v>16</v>
       </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
       <c r="C15">
         <v>1</v>
       </c>
@@ -759,6 +801,9 @@
       <c r="A16" t="s">
         <v>17</v>
       </c>
+      <c r="B16">
+        <v>12</v>
+      </c>
       <c r="C16">
         <v>12</v>
       </c>
@@ -770,6 +815,9 @@
       <c r="A17" t="s">
         <v>18</v>
       </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
       <c r="C17">
         <v>3</v>
       </c>
@@ -781,6 +829,9 @@
       <c r="A18" t="s">
         <v>19</v>
       </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
       <c r="C18">
         <v>3</v>
       </c>
@@ -791,6 +842,9 @@
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>20</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
       </c>
       <c r="C19">
         <v>1</v>
